--- a/Raw_Data/AP23_grid_numbers.xlsx
+++ b/Raw_Data/AP23_grid_numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tayrlindsay/Desktop/GITHUB/TL_Astrangia/Raw_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740340C7-A10C-914F-9E68-E21F0E12FBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF08426-0375-F546-9F6A-8694D854C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="25440" windowHeight="14160" xr2:uid="{EC8B731B-E3B0-D44A-A47B-062F32028307}"/>
+    <workbookView xWindow="5320" yWindow="500" windowWidth="25440" windowHeight="14120" xr2:uid="{EC8B731B-E3B0-D44A-A47B-062F32028307}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -116,24 +116,17 @@
     <t>S5</t>
   </si>
   <si>
-    <t>x</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,30 +138,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,12 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +478,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,25 +534,25 @@
       <c r="C2">
         <v>227</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>154</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>107</v>
       </c>
       <c r="F2" s="1">
         <v>183</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>79</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>161</v>
       </c>
-      <c r="I2" s="2">
-        <v>31</v>
-      </c>
-      <c r="J2">
+      <c r="I2" s="1">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1">
         <v>89</v>
       </c>
       <c r="K2">
@@ -603,25 +575,25 @@
       <c r="C3">
         <v>73</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>46</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>220</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>68</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>225</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>60</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>167</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>29</v>
       </c>
       <c r="K3">
@@ -644,25 +616,25 @@
       <c r="C4">
         <v>200</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>216</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>117</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>188</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>180</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>210</v>
       </c>
       <c r="K4">
@@ -685,26 +657,26 @@
       <c r="C5">
         <v>193</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>151</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>131</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>139</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>163</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>199</v>
       </c>
-      <c r="J5" s="3">
-        <v>216</v>
+      <c r="J5" s="1">
+        <v>116</v>
       </c>
       <c r="K5">
         <v>230</v>
@@ -712,7 +684,7 @@
       <c r="L5">
         <v>51</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>31</v>
       </c>
     </row>
@@ -817,7 +789,7 @@
       <c r="F8">
         <v>94</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>103</v>
       </c>
       <c r="H8">
@@ -902,8 +874,8 @@
       <c r="G10">
         <v>36</v>
       </c>
-      <c r="H10" s="3">
-        <v>55</v>
+      <c r="H10" s="1">
+        <v>65</v>
       </c>
       <c r="I10">
         <v>7</v>
@@ -1020,7 +992,7 @@
         <v>41</v>
       </c>
       <c r="F13" s="1">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="G13">
         <v>145</v>
@@ -1133,7 +1105,7 @@
       <c r="B16">
         <v>118</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>177</v>
       </c>
       <c r="D16">
